--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>testResults</t>
   </si>
@@ -412,7 +412,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
